--- a/patient_data/patient_74.xlsx
+++ b/patient_data/patient_74.xlsx
@@ -572,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1718,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1795,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1872,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
